--- a/BugReport/UserStory4BugReport.xlsx
+++ b/BugReport/UserStory4BugReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ParaBank\web-application-testing\BugReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EC65BD-454B-482B-A9B4-3A1D55E4113E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547463B1-257B-4417-9654-6DA256AB09B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
   <si>
     <t>Defect Report</t>
   </si>
@@ -123,6 +123,22 @@
   </si>
   <si>
     <t>Inprogress</t>
+  </si>
+  <si>
+    <t>Verify user cannot transfer funds to the new created account from the api.</t>
+  </si>
+  <si>
+    <t>I tried to use account cookies session and by using it and customer id I got the accounts ID the user have, so I tried to use those accounts to transfer funds between one of them to another.</t>
+  </si>
+  <si>
+    <t>Could not find account number 0 and /or 0</t>
+  </si>
+  <si>
+    <t>1.Open Postman and run account over view API.
+2. you will found on the response body a lot of accounts in a list but I take just two of them to make transfer funds  from one account to another.
+3. I opened transfer funds api and in the hader make sure to add cookies
+4. make sure to add the body shown on the screenshot which include fromAccountID, toAccountID, amount.
+5. make sure to add them in a json format as shown below.</t>
   </si>
 </sst>
 </file>
@@ -282,21 +298,24 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -305,9 +324,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -370,6 +386,50 @@
         <a:xfrm>
           <a:off x="9353550" y="5495925"/>
           <a:ext cx="4791075" cy="1543049"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1204105</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>17972</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C175BFC8-B400-489D-86D3-48CF6C7FD920}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16210473" y="5661085"/>
+          <a:ext cx="7512169" cy="2965330"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -644,344 +704,493 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:M17"/>
+  <dimension ref="A3:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L2" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="75" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9:T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="25.140625" customWidth="1"/>
     <col min="8" max="8" width="28.5703125" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+    <col min="15" max="15" width="18.85546875" customWidth="1"/>
+    <col min="20" max="20" width="53.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13" ht="15" customHeight="1">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:20" ht="15" customHeight="1">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="H3" s="2" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="H3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" ht="15">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" ht="15">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" ht="15">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" ht="14.25" customHeight="1">
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="O3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+    </row>
+    <row r="4" spans="1:20" ht="15">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+    </row>
+    <row r="5" spans="1:20" ht="15">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+    </row>
+    <row r="6" spans="1:20" ht="15">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+    </row>
+    <row r="7" spans="1:20" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
       <c r="H7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="6"/>
-    </row>
-    <row r="8" spans="1:13" ht="36.75" customHeight="1">
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="4"/>
+      <c r="O7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="4"/>
+    </row>
+    <row r="8" spans="1:20" ht="37.5" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
       <c r="H8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="6"/>
-    </row>
-    <row r="9" spans="1:13" ht="36.75" customHeight="1">
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="4"/>
+      <c r="O8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="4"/>
+    </row>
+    <row r="9" spans="1:20" ht="47.25" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4"/>
       <c r="H9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="6"/>
-    </row>
-    <row r="10" spans="1:13" ht="135.75" customHeight="1">
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="4"/>
+      <c r="O9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="4"/>
+    </row>
+    <row r="10" spans="1:20" ht="135.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4"/>
       <c r="H10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="6"/>
-    </row>
-    <row r="11" spans="1:13" ht="36.75" customHeight="1">
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="4"/>
+      <c r="O10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="4"/>
+    </row>
+    <row r="11" spans="1:20" ht="36.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4"/>
       <c r="H11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="6"/>
-    </row>
-    <row r="12" spans="1:13" ht="58.5" customHeight="1">
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="4"/>
+      <c r="O11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="4"/>
+    </row>
+    <row r="12" spans="1:20" ht="58.5" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4"/>
       <c r="H12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="6"/>
-    </row>
-    <row r="13" spans="1:13" ht="22.5" customHeight="1">
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="4"/>
+      <c r="O12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="4"/>
+    </row>
+    <row r="13" spans="1:20" ht="22.5" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="4"/>
       <c r="H13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="I13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="6"/>
-    </row>
-    <row r="14" spans="1:13" ht="123.75" customHeight="1">
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="4"/>
+      <c r="O13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="4"/>
+    </row>
+    <row r="14" spans="1:20" ht="232.5" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
       <c r="H14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="6"/>
-    </row>
-    <row r="15" spans="1:13" ht="15">
+      <c r="I14" s="6"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="4"/>
+      <c r="O14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="4"/>
+    </row>
+    <row r="15" spans="1:20" ht="15">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>44686</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="4"/>
       <c r="H15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="7">
         <v>44686</v>
       </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="6"/>
-    </row>
-    <row r="16" spans="1:13" ht="15">
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="4"/>
+      <c r="O15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="7">
+        <v>44686</v>
+      </c>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="4"/>
+    </row>
+    <row r="16" spans="1:20" ht="15">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="6"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="4"/>
       <c r="H16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="6"/>
-    </row>
-    <row r="17" spans="1:13" ht="15">
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="4"/>
+      <c r="O16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="4"/>
+    </row>
+    <row r="17" spans="1:20" ht="15">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="4"/>
       <c r="H17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="6"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="4"/>
+      <c r="O17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="36">
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="I16:M16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="I17:M17"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="I11:M11"/>
     <mergeCell ref="A3:F6"/>
     <mergeCell ref="H3:M6"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="I7:M7"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="I8:M8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="I11:M11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="I12:M12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="I13:M13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="I16:M16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="I17:M17"/>
+    <mergeCell ref="O3:T6"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="P16:T16"/>
+    <mergeCell ref="P17:T17"/>
+    <mergeCell ref="P11:T11"/>
+    <mergeCell ref="P12:T12"/>
+    <mergeCell ref="P13:T13"/>
+    <mergeCell ref="P14:T14"/>
+    <mergeCell ref="P15:T15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B14" r:id="rId1" xr:uid="{8C43A003-89A2-49FC-9F07-E61F0F01D7CA}"/>
